--- a/src/test/resources/SalaryCalculator.xlsx
+++ b/src/test/resources/SalaryCalculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1ed2414e60baddc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\My_TestNG-project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC229411-E468-40BF-8C9C-37A250950048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB1DFD8-9FE9-46FD-A5F0-2CCE49581867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,41 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Amount</t>
+    <t>amount</t>
   </si>
   <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>perWeek</t>
+    <t>hoursPerWeek</t>
   </si>
   <si>
     <t>daysPerWeek</t>
   </si>
   <si>
-    <t>holidays</t>
+    <t>holidaysPerYear</t>
   </si>
   <si>
-    <t>vacations</t>
+    <t>vacationsPerYear</t>
   </si>
   <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>per</t>
+    <t>annual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,29 +63,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,27 +89,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,27 +386,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -442,85 +417,96 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>62400</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
         <v>6</v>
       </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>62400</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>200200</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6">
+        <v>62400</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4">
-        <v>196560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5">
-        <v>112320</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>